--- a/wordform_to_morph.xlsx
+++ b/wordform_to_morph.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ok, now gice this as an table, " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -404,21 +404,21 @@
   <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62:AA67"/>
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.94"/>
   </cols>
   <sheetData>
